--- a/data/trans_orig/POLIPATOLOGIA_Lim_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_2-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3956</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1044</v>
+        <v>986</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9806</v>
+        <v>8932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008711022548522646</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002299867976808262</v>
+        <v>0.002171428157235122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02159285582723098</v>
+        <v>0.01966706653244661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,19 +764,19 @@
         <v>16116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10117</v>
+        <v>9940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26129</v>
+        <v>25567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03745899037078358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02351568023704745</v>
+        <v>0.02310427516194905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06073364768742735</v>
+        <v>0.05942562685043839</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -785,19 +785,19 @@
         <v>20072</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12034</v>
+        <v>12822</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29638</v>
+        <v>29891</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02269628806272951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01360720156526691</v>
+        <v>0.01449846965493301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03351246574400631</v>
+        <v>0.03379941457947617</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>450190</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>444340</v>
+        <v>445214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453102</v>
+        <v>453160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9912889774514774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.978407144172769</v>
+        <v>0.9803329334675536</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977001320231917</v>
+        <v>0.9978285718427649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>405</v>
@@ -835,19 +835,19 @@
         <v>414114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>404101</v>
+        <v>404663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>420113</v>
+        <v>420290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9625410096292164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9392663523125727</v>
+        <v>0.9405743731495617</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9764843197629526</v>
+        <v>0.976895724838051</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>847</v>
@@ -856,19 +856,19 @@
         <v>864304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>854738</v>
+        <v>854485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>872342</v>
+        <v>871554</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9773037119372705</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9664875342559938</v>
+        <v>0.9662005854205239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.986392798434733</v>
+        <v>0.985501530345067</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>25170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16571</v>
+        <v>17338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37135</v>
+        <v>38196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03663329021804278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02411801613030655</v>
+        <v>0.02523453396047961</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05404651456575669</v>
+        <v>0.05559169098061816</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -981,19 +981,19 @@
         <v>42366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30597</v>
+        <v>30994</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56908</v>
+        <v>58516</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06942268714810834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05013774635338981</v>
+        <v>0.05078862853914243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09325290227834476</v>
+        <v>0.09588775345299375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1002,19 +1002,19 @@
         <v>67536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52951</v>
+        <v>52244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86360</v>
+        <v>85934</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05205705658537487</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04081479843454282</v>
+        <v>0.04026987031317934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06656652168309633</v>
+        <v>0.06623874263630961</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>661917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>649952</v>
+        <v>648891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>670516</v>
+        <v>669749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9633667097819573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.945953485434244</v>
+        <v>0.9444083090193809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9758819838696938</v>
+        <v>0.9747654660395203</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>531</v>
@@ -1052,19 +1052,19 @@
         <v>567889</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>553347</v>
+        <v>551739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>579658</v>
+        <v>579261</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9305773128518917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9067470977216555</v>
+        <v>0.9041122465470066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9498622536466105</v>
+        <v>0.9492113714608575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1174</v>
@@ -1073,19 +1073,19 @@
         <v>1229806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1210982</v>
+        <v>1211408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1244391</v>
+        <v>1245098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9479429434146251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9334334783169036</v>
+        <v>0.9337612573636905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9591852015654572</v>
+        <v>0.9597301296868213</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>37926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27343</v>
+        <v>27650</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52739</v>
+        <v>52755</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05562067535234755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04010029162140485</v>
+        <v>0.04055093251428016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07734498724642602</v>
+        <v>0.07736844233043058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -1198,19 +1198,19 @@
         <v>111919</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93105</v>
+        <v>92928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132910</v>
+        <v>134721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1574433551829589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1309763603791709</v>
+        <v>0.1307279178495244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1869728760286797</v>
+        <v>0.1895204626954327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -1219,19 +1219,19 @@
         <v>149844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126398</v>
+        <v>127056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173563</v>
+        <v>176831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1075916503560095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09075691721616448</v>
+        <v>0.09122939482566783</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1246226201992676</v>
+        <v>0.1269687650879946</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>643937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629124</v>
+        <v>629108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654520</v>
+        <v>654213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9443793246476525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9226550127535739</v>
+        <v>0.9226315576695694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9598997083785951</v>
+        <v>0.9594490674857198</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>563</v>
@@ -1269,19 +1269,19 @@
         <v>598931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>577940</v>
+        <v>576129</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>617745</v>
+        <v>617922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8425566448170411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8130271239713203</v>
+        <v>0.8104795373045673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8690236396208291</v>
+        <v>0.8692720821504756</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1179</v>
@@ -1290,19 +1290,19 @@
         <v>1242868</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1219149</v>
+        <v>1215881</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1266314</v>
+        <v>1265656</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8924083496439905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.875377379800732</v>
+        <v>0.8730312349120054</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9092430827838355</v>
+        <v>0.9087706051743322</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>80112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64750</v>
+        <v>63187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101620</v>
+        <v>98368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1303439202081787</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.105349835377413</v>
+        <v>0.1028073230635888</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1653391862655222</v>
+        <v>0.160047629490721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -1415,19 +1415,19 @@
         <v>139841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120901</v>
+        <v>118418</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164810</v>
+        <v>162389</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2269418627691818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1962044274527112</v>
+        <v>0.192175568992701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2674625704210047</v>
+        <v>0.2635334127995455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -1436,19 +1436,19 @@
         <v>219953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190036</v>
+        <v>190838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249461</v>
+        <v>249609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1787049879472615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1543985075307909</v>
+        <v>0.1550497195813</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2026796004747383</v>
+        <v>0.2027992004165501</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>534505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>512997</v>
+        <v>516249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>549867</v>
+        <v>551430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8696560797918212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8346608137344776</v>
+        <v>0.839952370509279</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8946501646225871</v>
+        <v>0.8971926769364111</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>414</v>
@@ -1486,19 +1486,19 @@
         <v>476358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>451389</v>
+        <v>453810</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>495298</v>
+        <v>497781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7730581372308182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7325374295789953</v>
+        <v>0.7364665872004544</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8037955725472888</v>
+        <v>0.8078244310072989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>892</v>
@@ -1507,19 +1507,19 @@
         <v>1010863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>981355</v>
+        <v>981207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1040780</v>
+        <v>1039978</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8212950120527385</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7973203995252611</v>
+        <v>0.7972007995834499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.845601492469209</v>
+        <v>0.8449502804186999</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>111600</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93891</v>
+        <v>94497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132506</v>
+        <v>131062</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2598806199996057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2186416592144499</v>
+        <v>0.2200530463091675</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3085629462967951</v>
+        <v>0.3051998452197605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>188</v>
@@ -1632,19 +1632,19 @@
         <v>203459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>180588</v>
+        <v>183037</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224031</v>
+        <v>224990</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.454351418943721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4032789551636746</v>
+        <v>0.4087464300319649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5002923088562204</v>
+        <v>0.5024332947502693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>294</v>
@@ -1653,19 +1653,19 @@
         <v>315059</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>284171</v>
+        <v>286857</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>342747</v>
+        <v>346570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3591523128967664</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.323941679312351</v>
+        <v>0.3270034481675933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3907160670894293</v>
+        <v>0.3950731656551331</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>317829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296923</v>
+        <v>298367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>335538</v>
+        <v>334932</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7401193800003942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6914370537032049</v>
+        <v>0.6948001547802396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7813583407855498</v>
+        <v>0.7799469536908326</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>218</v>
@@ -1703,19 +1703,19 @@
         <v>244341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>223769</v>
+        <v>222810</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>267212</v>
+        <v>264763</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.545648581056279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4997076911437796</v>
+        <v>0.4975667052497308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5967210448363254</v>
+        <v>0.5912535699680351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -1724,19 +1724,19 @@
         <v>562170</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>534482</v>
+        <v>530659</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>593058</v>
+        <v>590372</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6408476871032336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6092839329105706</v>
+        <v>0.604926834344867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6760583206876489</v>
+        <v>0.672996551832407</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>157947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138339</v>
+        <v>139209</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175789</v>
+        <v>175707</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5098590969735913</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4465636121359056</v>
+        <v>0.4493727808352498</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5674516505398343</v>
+        <v>0.5671868842304496</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>214</v>
@@ -1849,19 +1849,19 @@
         <v>219370</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>201272</v>
+        <v>199377</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>237732</v>
+        <v>238754</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6196955505265848</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5685703605229173</v>
+        <v>0.563218501840396</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6715673043846691</v>
+        <v>0.6744535359130346</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>359</v>
@@ -1870,19 +1870,19 @@
         <v>377317</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>349645</v>
+        <v>352763</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>403038</v>
+        <v>404969</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5684350368655079</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5267461096166265</v>
+        <v>0.5314434432820072</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6071846837212098</v>
+        <v>0.6100940360734317</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>151839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133997</v>
+        <v>134079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171447</v>
+        <v>170577</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4901409030264087</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4325483494601657</v>
+        <v>0.4328131157695504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5534363878640945</v>
+        <v>0.5506272191647501</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>130</v>
@@ -1920,19 +1920,19 @@
         <v>134626</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116264</v>
+        <v>115242</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152724</v>
+        <v>154619</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3803044494734153</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.328432695615331</v>
+        <v>0.3255464640869655</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.431429639477083</v>
+        <v>0.436781498159604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>267</v>
@@ -1941,19 +1941,19 @@
         <v>286465</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>260744</v>
+        <v>258813</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>314137</v>
+        <v>311019</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4315649631344921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3928153162787902</v>
+        <v>0.3899059639265683</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4732538903833736</v>
+        <v>0.4685565567179928</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>165895</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148900</v>
+        <v>149693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180553</v>
+        <v>180139</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6639763193376867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5959560470850016</v>
+        <v>0.5991290871257151</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7226440142525306</v>
+        <v>0.7209860208301888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>275</v>
@@ -2066,19 +2066,19 @@
         <v>305540</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>286614</v>
+        <v>286948</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>319806</v>
+        <v>322006</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7854917977930349</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7368356979387608</v>
+        <v>0.7376950796242133</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8221679245240117</v>
+        <v>0.827824175061849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>421</v>
@@ -2087,19 +2087,19 @@
         <v>471435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>447099</v>
+        <v>445658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>494335</v>
+        <v>493028</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7379662384484255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6998723369511073</v>
+        <v>0.6976163327258624</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7738124434369842</v>
+        <v>0.7717673529977506</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>83956</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>69298</v>
+        <v>69712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100951</v>
+        <v>100158</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3360236806623133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2773559857474692</v>
+        <v>0.2790139791698112</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.404043952914998</v>
+        <v>0.4008709128742849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>75</v>
@@ -2137,19 +2137,19 @@
         <v>83439</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>69173</v>
+        <v>66973</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>102365</v>
+        <v>102031</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2145082022069651</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1778320754759884</v>
+        <v>0.172175824938151</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2631643020612392</v>
+        <v>0.2623049203757876</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>151</v>
@@ -2158,19 +2158,19 @@
         <v>167395</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>144495</v>
+        <v>145802</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>191731</v>
+        <v>193172</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2620337615515745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2261875565630158</v>
+        <v>0.2282326470022495</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3001276630488928</v>
+        <v>0.3023836672741376</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>582606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>539454</v>
+        <v>538682</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>633614</v>
+        <v>630537</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1700157024300643</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1574230628536044</v>
+        <v>0.1571977580252807</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1849007873077533</v>
+        <v>0.1840028520501623</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>962</v>
@@ -2283,19 +2283,19 @@
         <v>1038610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>982004</v>
+        <v>980623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1102056</v>
+        <v>1097712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2918829053032623</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2759750294189788</v>
+        <v>0.2755867539989996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3097135340318662</v>
+        <v>0.3084926289440859</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1492</v>
@@ -2304,19 +2304,19 @@
         <v>1621216</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1547598</v>
+        <v>1551982</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1690840</v>
+        <v>1692252</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2320966924990696</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.221557444366412</v>
+        <v>0.2221850620732218</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.24206427845719</v>
+        <v>0.2422663433221398</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>2844173</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2793165</v>
+        <v>2796242</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2887325</v>
+        <v>2888097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8299842975699357</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8150992126922465</v>
+        <v>0.8159971479498377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8425769371463954</v>
+        <v>0.8428022419747191</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2336</v>
@@ -2354,19 +2354,19 @@
         <v>2519699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2456253</v>
+        <v>2460597</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2576305</v>
+        <v>2577686</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7081170946967377</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6902864659681341</v>
+        <v>0.6915073710559142</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7240249705810212</v>
+        <v>0.7244132460010004</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5015</v>
@@ -2375,19 +2375,19 @@
         <v>5363872</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5294248</v>
+        <v>5292836</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5437490</v>
+        <v>5433106</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7679033075009304</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7579357215428097</v>
+        <v>0.7577336566778601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.778442555633588</v>
+        <v>0.7778149379267781</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>6332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2890</v>
+        <v>2539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13438</v>
+        <v>13122</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01509567956099962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00688889027694321</v>
+        <v>0.006052539210000796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03203709847890517</v>
+        <v>0.03128403443041598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2743,19 +2743,19 @@
         <v>24826</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16724</v>
+        <v>16467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35870</v>
+        <v>35438</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06273117960846351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04225871319532861</v>
+        <v>0.04160833618677082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09063802314758598</v>
+        <v>0.08954552852953905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2764,19 +2764,19 @@
         <v>31158</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21875</v>
+        <v>21173</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45629</v>
+        <v>43957</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03822076687301441</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02683363669091498</v>
+        <v>0.02597221953128085</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05597165233116153</v>
+        <v>0.05392018860034641</v>
       </c>
     </row>
     <row r="5">
@@ -2793,19 +2793,19 @@
         <v>413131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406025</v>
+        <v>406341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>416573</v>
+        <v>416924</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9849043204390003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9679629015210949</v>
+        <v>0.9687159655695839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9931111097230568</v>
+        <v>0.9939474607899988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>380</v>
@@ -2814,19 +2814,19 @@
         <v>370929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>359885</v>
+        <v>360317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>379031</v>
+        <v>379288</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9372688203915365</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9093619768524139</v>
+        <v>0.910454471470461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9577412868046713</v>
+        <v>0.9583916638132293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>767</v>
@@ -2835,19 +2835,19 @@
         <v>784060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>769589</v>
+        <v>771261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>793343</v>
+        <v>794045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9617792331269855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9440283476688393</v>
+        <v>0.9460798113996539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.973166363309085</v>
+        <v>0.9740277804687193</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>18371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10895</v>
+        <v>11404</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28772</v>
+        <v>29676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03111111218286489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01845029699763763</v>
+        <v>0.01931207796521383</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04872508173710571</v>
+        <v>0.05025581207278984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -2960,19 +2960,19 @@
         <v>35776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25460</v>
+        <v>26666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48895</v>
+        <v>49394</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06348323876855883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04517881607776171</v>
+        <v>0.04731841807781682</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08676307482389364</v>
+        <v>0.08764804567406771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -2981,19 +2981,19 @@
         <v>54147</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40698</v>
+        <v>40497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70354</v>
+        <v>70069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04691915031282545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03526540761352661</v>
+        <v>0.03509174851583231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06096353579459537</v>
+        <v>0.06071629343365593</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>572125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>561724</v>
+        <v>560820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579601</v>
+        <v>579092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9688888878171351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9512749182628945</v>
+        <v>0.9497441879272092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9815497030023624</v>
+        <v>0.9806879220347859</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -3031,19 +3031,19 @@
         <v>527768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514649</v>
+        <v>514150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538084</v>
+        <v>536878</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9365167612314412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9132369251761062</v>
+        <v>0.9123519543259325</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.954821183922238</v>
+        <v>0.9526815819221832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1094</v>
@@ -3052,19 +3052,19 @@
         <v>1099893</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1083686</v>
+        <v>1083971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1113342</v>
+        <v>1113543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9530808496871745</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9390364642054047</v>
+        <v>0.9392837065663442</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9647345923864734</v>
+        <v>0.9649082514841677</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>37304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26854</v>
+        <v>25750</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49750</v>
+        <v>50177</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05575329856362542</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04013402262727498</v>
+        <v>0.03848493567225365</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07435350885177891</v>
+        <v>0.07499168728254624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -3177,19 +3177,19 @@
         <v>67764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53221</v>
+        <v>54629</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85115</v>
+        <v>84639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1024575195686692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08046894022650689</v>
+        <v>0.08259834569182434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.128691499647961</v>
+        <v>0.1279716094012383</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -3198,19 +3198,19 @@
         <v>105068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87517</v>
+        <v>86838</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127341</v>
+        <v>127886</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07897007898285524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06577839785276605</v>
+        <v>0.06526786785707064</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09571059580496073</v>
+        <v>0.09612024792125112</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>631793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619347</v>
+        <v>618920</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>642243</v>
+        <v>643347</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9442467014363746</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9256464911482211</v>
+        <v>0.9250083127174538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9598659773727249</v>
+        <v>0.9615150643277462</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>597</v>
@@ -3248,19 +3248,19 @@
         <v>593622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>576271</v>
+        <v>576747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>608165</v>
+        <v>606757</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8975424804313308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8713085003520387</v>
+        <v>0.8720283905987614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9195310597734929</v>
+        <v>0.9174016543081757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1200</v>
@@ -3269,19 +3269,19 @@
         <v>1225415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1203142</v>
+        <v>1202597</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1242966</v>
+        <v>1243645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9210299210171448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9042894041950398</v>
+        <v>0.9038797520787488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9342216021472343</v>
+        <v>0.9347321321429294</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>89738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74262</v>
+        <v>72680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109244</v>
+        <v>110307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1389033527329222</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1149479030084288</v>
+        <v>0.1124987146748336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1690955493551038</v>
+        <v>0.1707414696164604</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -3394,19 +3394,19 @@
         <v>141205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121360</v>
+        <v>121818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164400</v>
+        <v>163566</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2175469199427884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1869727201068846</v>
+        <v>0.1876789229204718</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2532828824771604</v>
+        <v>0.2519977216731058</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -3415,19 +3415,19 @@
         <v>230943</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202570</v>
+        <v>202208</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>257890</v>
+        <v>259475</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1783170900395574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1564093302106442</v>
+        <v>0.1561300578791633</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1991239389829257</v>
+        <v>0.200347745995616</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>556310</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536804</v>
+        <v>535741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>571786</v>
+        <v>573368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8610966472670778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8309044506448963</v>
+        <v>0.8292585303835397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8850520969915715</v>
+        <v>0.8875012853251664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>470</v>
@@ -3465,19 +3465,19 @@
         <v>507872</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>484677</v>
+        <v>485511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>527717</v>
+        <v>527259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7824530800572116</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7467171175228398</v>
+        <v>0.7480022783268939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.813027279893116</v>
+        <v>0.8123210770795282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>969</v>
@@ -3486,19 +3486,19 @@
         <v>1064182</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1037235</v>
+        <v>1035650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1092555</v>
+        <v>1092917</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8216829099604426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8008760610170742</v>
+        <v>0.7996522540043839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8435906697893557</v>
+        <v>0.8438699421208367</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>111340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93383</v>
+        <v>93376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133464</v>
+        <v>132310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.232968173916541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1953963469055877</v>
+        <v>0.1953816974956011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.279261421976246</v>
+        <v>0.2768462825487577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -3611,19 +3611,19 @@
         <v>192519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>171198</v>
+        <v>169187</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217352</v>
+        <v>216316</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3874794863925691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.344566897606281</v>
+        <v>0.3405191839823101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4374611468192023</v>
+        <v>0.435375887418887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -3632,19 +3632,19 @@
         <v>303858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>273403</v>
+        <v>273111</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>332606</v>
+        <v>337261</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3117242164557542</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2804801067109656</v>
+        <v>0.2801807359071976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3412157049291468</v>
+        <v>0.3459913595194455</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>366578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>344454</v>
+        <v>345608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>384535</v>
+        <v>384542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7670318260834591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.720738578023754</v>
+        <v>0.7231537174512422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8046036530944126</v>
+        <v>0.8046183025043988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>264</v>
@@ -3682,19 +3682,19 @@
         <v>304330</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>279497</v>
+        <v>280533</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>325651</v>
+        <v>327662</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6125205136074309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5625388531807977</v>
+        <v>0.5646241125811131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.655433102393719</v>
+        <v>0.65948081601769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>591</v>
@@ -3703,19 +3703,19 @@
         <v>670909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>642161</v>
+        <v>637506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>701364</v>
+        <v>701656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6882757835442458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6587842950708531</v>
+        <v>0.6540086404805546</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7195198932890335</v>
+        <v>0.7198192640928026</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>112445</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96976</v>
+        <v>95045</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129814</v>
+        <v>130628</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3363283793718653</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2900616750004593</v>
+        <v>0.2842849260797125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3882803340063726</v>
+        <v>0.3907169648151375</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>188</v>
@@ -3828,19 +3828,19 @@
         <v>199315</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>178980</v>
+        <v>179726</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218409</v>
+        <v>219350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5276196216204977</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4737916510794265</v>
+        <v>0.475764448717749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5781666606402532</v>
+        <v>0.5806563450845423</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -3849,19 +3849,19 @@
         <v>311759</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>286782</v>
+        <v>285960</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>336844</v>
+        <v>337994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4378076300654115</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.402732371206598</v>
+        <v>0.4015773550691561</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4730350044408446</v>
+        <v>0.4746494624161378</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>221885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204516</v>
+        <v>203702</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237354</v>
+        <v>239285</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6636716206281347</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6117196659936274</v>
+        <v>0.6092830351848626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7099383249995406</v>
+        <v>0.7157150739202877</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -3899,19 +3899,19 @@
         <v>178447</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159353</v>
+        <v>158412</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>198782</v>
+        <v>198036</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4723803783795023</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4218333393597468</v>
+        <v>0.4193436549154578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5262083489205734</v>
+        <v>0.524235551282251</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>382</v>
@@ -3920,19 +3920,19 @@
         <v>400333</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>375248</v>
+        <v>374098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>425310</v>
+        <v>426132</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5621923699345885</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5269649955591554</v>
+        <v>0.5253505375838623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.597267628793402</v>
+        <v>0.598422644930844</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>130997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115841</v>
+        <v>117048</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145089</v>
+        <v>145469</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5097191206368118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4507474483633514</v>
+        <v>0.4554425016498601</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5645521030994141</v>
+        <v>0.5660302318962217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -4045,19 +4045,19 @@
         <v>252059</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>230421</v>
+        <v>232101</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>273437</v>
+        <v>274862</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6298803999850702</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5758085754413422</v>
+        <v>0.5800081101289373</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6833031785196616</v>
+        <v>0.6868643622407364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -4066,19 +4066,19 @@
         <v>383055</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>357930</v>
+        <v>355903</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>409041</v>
+        <v>409800</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5828889829257456</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5446555426359164</v>
+        <v>0.5415718571913898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6224307398078422</v>
+        <v>0.6235861242423072</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>126001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111909</v>
+        <v>111529</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141157</v>
+        <v>139950</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4902808793631882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.435447896900586</v>
+        <v>0.4339697681037784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5492525516366485</v>
+        <v>0.5445574983501393</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -4116,19 +4116,19 @@
         <v>148110</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>126732</v>
+        <v>125307</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>169748</v>
+        <v>168068</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3701196000149298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3166968214803382</v>
+        <v>0.3131356377592636</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4241914245586578</v>
+        <v>0.4199918898710627</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>260</v>
@@ -4137,19 +4137,19 @@
         <v>274112</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>248126</v>
+        <v>247367</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>299237</v>
+        <v>301264</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4171110170742543</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.377569260192158</v>
+        <v>0.3764138757576928</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4553444573640837</v>
+        <v>0.4584281428086102</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>506527</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>465671</v>
+        <v>466111</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>551658</v>
+        <v>549539</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1492264490404378</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1371901229543218</v>
+        <v>0.1373197629726972</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1625223489518376</v>
+        <v>0.1618981543279248</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>807</v>
@@ -4262,19 +4262,19 @@
         <v>913463</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>861862</v>
+        <v>854736</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>970974</v>
+        <v>971131</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2577096007738456</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2431519885744115</v>
+        <v>0.2411415550930993</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2739350984640687</v>
+        <v>0.2739791848419643</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1306</v>
@@ -4283,19 +4283,19 @@
         <v>1419989</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1352167</v>
+        <v>1354016</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1491537</v>
+        <v>1492050</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2046420785880363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1948678771085134</v>
+        <v>0.1951342623560994</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2149532441470101</v>
+        <v>0.2150270692734065</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>2887823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2842692</v>
+        <v>2844811</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2928679</v>
+        <v>2928239</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8507735509595622</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8374776510481624</v>
+        <v>0.8381018456720752</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8628098770456781</v>
+        <v>0.8626802370273029</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2531</v>
@@ -4333,19 +4333,19 @@
         <v>2631079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2573568</v>
+        <v>2573411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2682680</v>
+        <v>2689806</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7422903992261544</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7260649015359313</v>
+        <v>0.7260208151580357</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7568480114255886</v>
+        <v>0.758858444906901</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5263</v>
@@ -4354,19 +4354,19 @@
         <v>5518903</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5447355</v>
+        <v>5446842</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5586725</v>
+        <v>5584876</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7953579214119637</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7850467558529899</v>
+        <v>0.7849729307265936</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8051321228914864</v>
+        <v>0.8048657376439006</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>17890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6626</v>
+        <v>6872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37583</v>
+        <v>36531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0438694885287196</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01624870973673768</v>
+        <v>0.01685253005424648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09216188604782848</v>
+        <v>0.08958277215310995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -4722,19 +4722,19 @@
         <v>52649</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34797</v>
+        <v>34596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74571</v>
+        <v>76172</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1452331671845936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09598898952547055</v>
+        <v>0.09543312492606355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2057063337126848</v>
+        <v>0.2101237545114807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4743,19 +4743,19 @@
         <v>70538</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47269</v>
+        <v>48745</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96424</v>
+        <v>98038</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09157208106620557</v>
+        <v>0.09157208106620555</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0613635091761015</v>
+        <v>0.06328047335432149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.125175951991531</v>
+        <v>0.1272714751453177</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>389903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>370210</v>
+        <v>371262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401167</v>
+        <v>400921</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9561305114712806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9078381139521715</v>
+        <v>0.9104172278468901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9837512902632625</v>
+        <v>0.9831474699457535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -4793,19 +4793,19 @@
         <v>309863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287941</v>
+        <v>286340</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327715</v>
+        <v>327916</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8547668328154064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7942936662873157</v>
+        <v>0.789876245488519</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9040110104745296</v>
+        <v>0.9045668750739364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>348</v>
@@ -4814,19 +4814,19 @@
         <v>699767</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>673881</v>
+        <v>672267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>723036</v>
+        <v>721560</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9084279189337946</v>
+        <v>0.9084279189337943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8748240480084688</v>
+        <v>0.8727285248546822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9386364908238984</v>
+        <v>0.9367195266456783</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>28212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17818</v>
+        <v>16593</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42925</v>
+        <v>42570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05915814521397059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03736378757222269</v>
+        <v>0.03479314257637643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09001018416138451</v>
+        <v>0.08926682338474959</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -4939,19 +4939,19 @@
         <v>67253</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53237</v>
+        <v>51537</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85149</v>
+        <v>84094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1340413691951363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1061067010576151</v>
+        <v>0.1027178913715211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1697102449217724</v>
+        <v>0.1676074719351464</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -4960,19 +4960,19 @@
         <v>95465</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76684</v>
+        <v>76956</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116249</v>
+        <v>118716</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09755021257722894</v>
+        <v>0.09755021257722896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07835936995498527</v>
+        <v>0.07863652607589974</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1187882923734149</v>
+        <v>0.1213090510014737</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>448678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433965</v>
+        <v>434320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459072</v>
+        <v>460297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9408418547860294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9099898158386155</v>
+        <v>0.9107331766152504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.962636212427777</v>
+        <v>0.9652068574236234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>401</v>
@@ -5010,19 +5010,19 @@
         <v>434480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>416584</v>
+        <v>417639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>448496</v>
+        <v>450196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8659586308048636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8302897550782279</v>
+        <v>0.8323925280648535</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.893893298942385</v>
+        <v>0.8972821086284787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>683</v>
@@ -5031,19 +5031,19 @@
         <v>883158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>862374</v>
+        <v>859907</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>901939</v>
+        <v>901667</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.902449787422771</v>
+        <v>0.9024497874227712</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8812117076265851</v>
+        <v>0.8786909489985272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9216406300450148</v>
+        <v>0.9213634739241003</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>51557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39187</v>
+        <v>38583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68086</v>
+        <v>68499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08304356885866181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06312023702100071</v>
+        <v>0.06214649896957464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1096687498338996</v>
+        <v>0.1103325408182395</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -5156,19 +5156,19 @@
         <v>115942</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98381</v>
+        <v>100236</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>133604</v>
+        <v>132313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1860450414210355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1578666017212619</v>
+        <v>0.1608422847752191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2143859311099793</v>
+        <v>0.212314721062895</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -5177,19 +5177,19 @@
         <v>167498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146920</v>
+        <v>145789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189614</v>
+        <v>190914</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1346418315441311</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.118100262974647</v>
+        <v>0.1171906913823355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1524188867837767</v>
+        <v>0.1534644340684869</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>569280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>552751</v>
+        <v>552338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>581650</v>
+        <v>582254</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9169564311413383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8903312501661005</v>
+        <v>0.8896674591817598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9368797629789993</v>
+        <v>0.937853501030425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>691</v>
@@ -5227,19 +5227,19 @@
         <v>507251</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>489589</v>
+        <v>490880</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>524812</v>
+        <v>522957</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8139549585789646</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7856140688900206</v>
+        <v>0.787685278937105</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8421333982787382</v>
+        <v>0.8391577152247808</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1191</v>
@@ -5248,19 +5248,19 @@
         <v>1076531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054415</v>
+        <v>1053115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1097109</v>
+        <v>1098240</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.865358168455869</v>
+        <v>0.8653581684558688</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8475811132162233</v>
+        <v>0.8465355659315134</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.881899737025353</v>
+        <v>0.8828093086176644</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>130316</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110099</v>
+        <v>109339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152789</v>
+        <v>152376</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1860017186329666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1571459006802942</v>
+        <v>0.1560608900771563</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2180774506876398</v>
+        <v>0.2174885583218537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>327</v>
@@ -5373,19 +5373,19 @@
         <v>210665</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>192415</v>
+        <v>190552</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229642</v>
+        <v>228853</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2858850822923569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2611186995451817</v>
+        <v>0.2585914513882875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3116388195729777</v>
+        <v>0.3105672599507867</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>447</v>
@@ -5394,19 +5394,19 @@
         <v>340981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>310800</v>
+        <v>313832</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>367673</v>
+        <v>372296</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2372034638912434</v>
+        <v>0.2372034638912435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2162084092914587</v>
+        <v>0.2183176000608515</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2557715490541232</v>
+        <v>0.2589881028225517</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>570301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>547828</v>
+        <v>548241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>590518</v>
+        <v>591278</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8139982813670334</v>
+        <v>0.8139982813670333</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7819225493123602</v>
+        <v>0.7825114416781461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8428540993197057</v>
+        <v>0.8439391099228437</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>814</v>
@@ -5444,19 +5444,19 @@
         <v>526221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>507244</v>
+        <v>508033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>544471</v>
+        <v>546334</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.714114917707643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6883611804270222</v>
+        <v>0.6894327400492135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7388813004548185</v>
+        <v>0.7414085486117126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1359</v>
@@ -5465,19 +5465,19 @@
         <v>1096523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069831</v>
+        <v>1065208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1126704</v>
+        <v>1123672</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7627965361087564</v>
+        <v>0.7627965361087566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7442284509458768</v>
+        <v>0.7410118971774468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7837915907085414</v>
+        <v>0.781682399939148</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>163648</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142892</v>
+        <v>143978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183607</v>
+        <v>185076</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2685625248731083</v>
+        <v>0.2685625248731084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2345000001932469</v>
+        <v>0.2362832202819188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3013176723036758</v>
+        <v>0.3037292760762063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>388</v>
@@ -5590,19 +5590,19 @@
         <v>238289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>218647</v>
+        <v>220088</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>256899</v>
+        <v>255621</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.391371619017947</v>
+        <v>0.3913716190179471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3591118479876878</v>
+        <v>0.3614792836931477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4219382136654233</v>
+        <v>0.4198389021414536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>567</v>
@@ -5611,19 +5611,19 @@
         <v>401936</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>373734</v>
+        <v>374998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>434105</v>
+        <v>431331</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3299423204626215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3067914944714453</v>
+        <v>0.307828931484652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3563488256526252</v>
+        <v>0.3540714162890539</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>445698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>425739</v>
+        <v>424270</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466454</v>
+        <v>465368</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7314374751268916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6986823276963242</v>
+        <v>0.6962707239237936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7654999998067531</v>
+        <v>0.7637167797180812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>614</v>
@@ -5661,19 +5661,19 @@
         <v>370566</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>351956</v>
+        <v>353234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>390208</v>
+        <v>388767</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6086283809820529</v>
+        <v>0.608628380982053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5780617863345769</v>
+        <v>0.5801610978585464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6408881520123118</v>
+        <v>0.6385207163068521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1098</v>
@@ -5682,19 +5682,19 @@
         <v>816266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>784097</v>
+        <v>786871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>844468</v>
+        <v>843204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6700576795373785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6436511743473748</v>
+        <v>0.6459285837109462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6932085055285547</v>
+        <v>0.6921710685153479</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>114318</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100880</v>
+        <v>97928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130294</v>
+        <v>128045</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2808256152549473</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2478148996397874</v>
+        <v>0.2405622849000295</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3200709368307282</v>
+        <v>0.3145447869626813</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>379</v>
@@ -5807,19 +5807,19 @@
         <v>205740</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189433</v>
+        <v>189019</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219286</v>
+        <v>220768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4684799489110246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4313469437376966</v>
+        <v>0.4304041800540582</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4993240000478879</v>
+        <v>0.5026986673351409</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>544</v>
@@ -5828,19 +5828,19 @@
         <v>320059</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>297154</v>
+        <v>298149</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>342048</v>
+        <v>341264</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3782103549088333</v>
+        <v>0.3782103549088334</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3511433144353868</v>
+        <v>0.3523193191544453</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4041946156764004</v>
+        <v>0.4032676883139456</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>292762</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276786</v>
+        <v>279035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>306200</v>
+        <v>309152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7191743847450527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6799290631692717</v>
+        <v>0.6854552130373188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7521851003602126</v>
+        <v>0.7594377150999704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>448</v>
@@ -5878,19 +5878,19 @@
         <v>233426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219880</v>
+        <v>218398</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>249733</v>
+        <v>250147</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5315200510889754</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5006759999521122</v>
+        <v>0.4973013326648592</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5686530562623039</v>
+        <v>0.5695958199459419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>853</v>
@@ -5899,19 +5899,19 @@
         <v>526187</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>504198</v>
+        <v>504982</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549092</v>
+        <v>548097</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6217896450911666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5958053843235996</v>
+        <v>0.5967323116860543</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6488566855646134</v>
+        <v>0.6476806808455547</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>135051</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>120866</v>
+        <v>120451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148016</v>
+        <v>149005</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.435371748663865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3896417588459493</v>
+        <v>0.3883048417401926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4771662096635812</v>
+        <v>0.4803531275485748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>611</v>
@@ -6024,19 +6024,19 @@
         <v>318877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>304482</v>
+        <v>301710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>333262</v>
+        <v>333380</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6863346692881577</v>
+        <v>0.6863346692881578</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6553512559531631</v>
+        <v>0.6493841117232042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7172959302665115</v>
+        <v>0.7175494361434323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>815</v>
@@ -6045,19 +6045,19 @@
         <v>453929</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>430733</v>
+        <v>431893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>474277</v>
+        <v>473964</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5858602886510609</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5559232354322037</v>
+        <v>0.5574204271262234</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.612122932465319</v>
+        <v>0.6117185211295687</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>175147</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162182</v>
+        <v>161193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>189332</v>
+        <v>189747</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5646282513361349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.522833790336419</v>
+        <v>0.5196468724514252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6103582411540507</v>
+        <v>0.6116951582598072</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -6095,19 +6095,19 @@
         <v>145732</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>131347</v>
+        <v>131229</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>160127</v>
+        <v>162899</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3136653307118423</v>
+        <v>0.3136653307118422</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2827040697334886</v>
+        <v>0.282450563856568</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3446487440468369</v>
+        <v>0.3506158882767967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>524</v>
@@ -6116,19 +6116,19 @@
         <v>320878</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>300530</v>
+        <v>300843</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>344074</v>
+        <v>342914</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4141397113489391</v>
+        <v>0.414139711348939</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3878770675346808</v>
+        <v>0.3882814788704314</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4440767645677963</v>
+        <v>0.4425795728737767</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>640992</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>597165</v>
+        <v>594608</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>688699</v>
+        <v>685116</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1814420991046728</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1690362338059559</v>
+        <v>0.1683124216266734</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1949462068893653</v>
+        <v>0.1939322040663885</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1946</v>
@@ -6241,19 +6241,19 @@
         <v>1209415</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1155411</v>
+        <v>1162276</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1257371</v>
+        <v>1262631</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3236365340281573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3091852418855027</v>
+        <v>0.3110223056112455</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3364695450114094</v>
+        <v>0.3378771573235088</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2687</v>
@@ -6262,19 +6262,19 @@
         <v>1850407</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1778239</v>
+        <v>1779397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1916670</v>
+        <v>1921008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2545362998335526</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2446091095216363</v>
+        <v>0.2447684413526258</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2636513065882695</v>
+        <v>0.2642479649790835</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>2891770</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2844063</v>
+        <v>2847646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2935597</v>
+        <v>2938154</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8185579008953274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8050537931106349</v>
+        <v>0.8060677959336114</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8309637661940441</v>
+        <v>0.8316875783733269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3421</v>
@@ -6312,19 +6312,19 @@
         <v>2527539</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2479583</v>
+        <v>2474323</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2581543</v>
+        <v>2574678</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6763634659718427</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6635304549885905</v>
+        <v>0.6621228426764912</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6908147581144972</v>
+        <v>0.6889776943887547</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6056</v>
@@ -6333,19 +6333,19 @@
         <v>5419309</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5353046</v>
+        <v>5348708</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5491477</v>
+        <v>5490319</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7454637001664474</v>
+        <v>0.7454637001664473</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7363486934117306</v>
+        <v>0.7357520350209165</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7553908904783637</v>
+        <v>0.7552315586473742</v>
       </c>
     </row>
     <row r="27">
